--- a/DanhSachFileTimHieu.xlsx
+++ b/DanhSachFileTimHieu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Người làm</t>
   </si>
@@ -58,34 +58,47 @@
     <t>recognize_faces_in_pictures.py</t>
   </si>
   <si>
+    <t>web_service_example_Simplified_Chinese.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>benchmark.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blur_faces_on_webcam.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>digital_makeup.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facerec_from_video_file.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facerec_from_webcam.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tên file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Đã comment nhưng chưa chạy demo do không có webcam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>web_service_example.py</t>
-  </si>
-  <si>
-    <t>web_service_example_Simplified_Chinese.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>benchmark.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blur_faces_on_webcam.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>digital_makeup.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>facerec_from_video_file.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>facerec_from_webcam.py</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tên file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source giống với web_service_example.py nên không đối ứng</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -179,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +213,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,166 +511,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="47.75" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="2" customFormat="1" ht="16.5">
+    <row r="2" spans="2:4" s="2" customFormat="1">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="2:4" s="2" customFormat="1">
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="2:4" s="2" customFormat="1">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" s="2" customFormat="1" ht="16.5">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="2" customFormat="1">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="2" customFormat="1" ht="16.5">
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:4" s="2" customFormat="1">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" s="2" customFormat="1" ht="16.5">
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:4" s="2" customFormat="1">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" s="2" customFormat="1" ht="16.5">
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="2" customFormat="1">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="2" customFormat="1">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:4" s="2" customFormat="1">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="2:4" s="2" customFormat="1">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="2" customFormat="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="2" customFormat="1">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="2:4" s="2" customFormat="1">
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:4" s="2" customFormat="1">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="2:4" s="2" customFormat="1">
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1">
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" s="2" customFormat="1" ht="16.5">
+      <c r="D18" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="2" customFormat="1">
       <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="2" customFormat="1">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="2" customFormat="1" ht="16.5">
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DanhSachFileTimHieu.xlsx
+++ b/DanhSachFileTimHieu.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\DEEPLEARNING\face_recognition-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Người làm</t>
   </si>
@@ -98,26 +103,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>Source giống với web_service_example.py nên không đối ứng</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source giống với facerec_on_raspberry_pi.py nên không đối ứng</t>
+  </si>
+  <si>
+    <t>Đã comment nhưng chưa chạy demo do không có webcam</t>
+  </si>
+  <si>
+    <t>Đã comment nhưng chưa chạy demo do không có máy Raspberry và Camera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -131,7 +147,7 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -221,8 +237,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -269,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,9 +353,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +388,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,10 +564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -538,7 +594,9 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="2:4" s="2" customFormat="1">
       <c r="B4" s="5" t="s">
@@ -558,7 +616,9 @@
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="2:4" s="2" customFormat="1">
       <c r="B6" s="5" t="s">
@@ -567,7 +627,9 @@
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="2:4" s="2" customFormat="1">
       <c r="B7" s="3" t="s">
@@ -588,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="2" customFormat="1">
@@ -598,7 +660,9 @@
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="2:4" s="2" customFormat="1">
       <c r="B10" s="5" t="s">
@@ -607,7 +671,9 @@
       <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="2:4" s="2" customFormat="1">
       <c r="B11" s="3" t="s">
@@ -638,7 +704,9 @@
       <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="2:4" s="2" customFormat="1">
       <c r="B14" s="5" t="s">
@@ -647,7 +715,9 @@
       <c r="C14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="2:4" s="2" customFormat="1">
       <c r="B15" s="3" t="s">
@@ -656,7 +726,9 @@
       <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="2:4" s="2" customFormat="1">
       <c r="B16" s="5" t="s">
@@ -665,7 +737,9 @@
       <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="2" customFormat="1">
       <c r="B17" s="3" t="s">
@@ -708,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DanhSachFileTimHieu.xlsx
+++ b/DanhSachFileTimHieu.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\DEEPLEARNING\face_recognition-master\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="7590"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Người làm</t>
   </si>
@@ -91,10 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Đã comment nhưng chưa chạy demo do không có webcam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -112,28 +103,29 @@
     <t>Source giống với facerec_on_raspberry_pi.py nên không đối ứng</t>
   </si>
   <si>
-    <t>Đã comment nhưng chưa chạy demo do không có webcam</t>
-  </si>
-  <si>
     <t>Đã comment nhưng chưa chạy demo do không có máy Raspberry và Camera</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Arial"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -147,7 +139,7 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -321,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,10 +345,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +379,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,12 +554,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -595,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="2" customFormat="1">
@@ -606,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="2" customFormat="1">
@@ -617,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="2" customFormat="1">
@@ -628,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="2" customFormat="1">
@@ -639,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="2" customFormat="1">
@@ -661,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="2" customFormat="1">
@@ -672,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="2" customFormat="1">
@@ -683,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="2" customFormat="1">
@@ -694,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="2" customFormat="1">
@@ -705,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="2" customFormat="1">
@@ -716,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="2" customFormat="1">
@@ -727,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:4" s="2" customFormat="1">
@@ -738,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="2" customFormat="1">
@@ -749,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="2" customFormat="1">
@@ -760,18 +748,18 @@
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="2" customFormat="1">
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="2" customFormat="1">
@@ -782,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
